--- a/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Nerviosismo escala 0-10</t>
+          <t>Bienestar emocional - Nerviosismo escala 0-10 (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,29</t>
+          <t>2,37; 3,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,9</t>
+          <t>7,98; 8,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,89</t>
+          <t>5,83; 6,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,45</t>
+          <t>3,06; 4,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 8,46</t>
+          <t>7,5; 8,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 5,48</t>
+          <t>4,35; 5,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,73</t>
+          <t>2,9; 3,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 8,59</t>
+          <t>7,95; 8,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,04</t>
+          <t>5,23; 6,02</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,17</t>
+          <t>2,26; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 8,55</t>
+          <t>7,84; 8,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,54</t>
+          <t>5,76; 6,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,63</t>
+          <t>3,0; 3,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 9,21</t>
+          <t>7,89; 9,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 5,77</t>
+          <t>4,96; 5,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,32</t>
+          <t>2,73; 3,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,92</t>
+          <t>8,04; 8,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 6,03</t>
+          <t>5,49; 6,03</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,13</t>
+          <t>2,64; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 8,4</t>
+          <t>7,82; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 6,31</t>
+          <t>5,58; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 3,93</t>
+          <t>3,32; 3,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,68</t>
+          <t>7,2; 7,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 5,99</t>
+          <t>5,22; 6,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,5</t>
+          <t>3,07; 3,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 7,98</t>
+          <t>7,59; 7,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 6,05</t>
+          <t>5,53; 6,08</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,38</t>
+          <t>3,01; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 9,5</t>
+          <t>7,66; 9,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 6,51</t>
+          <t>5,83; 6,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 3,83</t>
+          <t>2,95; 3,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,41</t>
+          <t>6,96; 7,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 3,53</t>
+          <t>3,06; 3,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,0</t>
+          <t>7,41; 9,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 6,08</t>
+          <t>5,57; 6,08</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,35</t>
+          <t>2,72; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,6</t>
+          <t>7,12; 7,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,03</t>
+          <t>6,3; 7,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,7</t>
+          <t>2,99; 3,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 7,02</t>
+          <t>6,56; 7,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 6,11</t>
+          <t>5,43; 6,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,48</t>
+          <t>2,96; 3,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,26</t>
+          <t>6,91; 7,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 6,42</t>
+          <t>5,9; 6,42</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,79</t>
+          <t>2,25; 2,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,85</t>
+          <t>7,33; 7,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,05</t>
+          <t>7,25; 8,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,65</t>
+          <t>2,96; 3,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 7,17</t>
+          <t>6,27; 7,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,15</t>
+          <t>2,68; 3,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,41</t>
+          <t>3,5; 7,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,22</t>
+          <t>2,51; 3,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,34</t>
+          <t>6,63; 7,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 7,43</t>
+          <t>6,49; 7,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,01</t>
+          <t>3,41; 4,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 6,8</t>
+          <t>6,27; 6,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 6,93</t>
+          <t>5,87; 6,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 3,62</t>
+          <t>3,15; 3,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 6,93</t>
+          <t>6,49; 6,89</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,02</t>
+          <t>6,29; 7,0</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,01</t>
+          <t>2,79; 3,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,79; 8,66</t>
+          <t>7,77; 8,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 6,6</t>
+          <t>6,28; 6,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 3,66</t>
+          <t>3,32; 3,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,53; 7,45</t>
+          <t>5,69; 7,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 5,9</t>
+          <t>5,58; 5,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,32</t>
+          <t>3,09; 3,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,67; 7,89</t>
+          <t>6,62; 7,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,95; 6,18</t>
+          <t>5,96; 6,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/NERVIOSISMO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>6,34</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>3,25</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,3</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,64</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,09; 8,93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 6,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 6,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,37; 3,39</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 8,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 6,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 6,92</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,59; 8,49</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 5,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 6,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>3,06; 4,2</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 8,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 6,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 5,45</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>8,0; 8,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 6,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 6,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>2,9; 3,6</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 8,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 6,58</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 6,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,18</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,63</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>3,4</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>3,01</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,86; 8,56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 6,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 6,36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,26; 3,04</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 8,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 6,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 6,54</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,73; 8,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 5,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 6,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>3,0; 3,76</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,89; 9,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 6,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 5,79</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,91; 8,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 6,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 6,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,73; 3,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>8,04; 8,92</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 6,5</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 6,03</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,48</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>3,63</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>3,3</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,94; 8,44</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 6,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 6,38</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,64; 3,37</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 8,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 6,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 6,32</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,23; 7,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 6,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 6,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>3,32; 3,91</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 7,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,02; 6,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 6,01</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,66; 8,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 6,08</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 6,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>3,07; 3,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 7,97</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 6,39</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 6,08</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,28</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>3,23</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,19</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,46</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>3,25</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,47; 7,99</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 6,5</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 6,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,01; 3,55</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,66; 9,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 6,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 6,5</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>6,96; 7,39</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 5,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 6,75</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>2,95; 3,53</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 7,39</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 6,75</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 5,84</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,29; 7,61</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 6,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 6,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>3,06; 3,46</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,41; 9,03</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 6,36</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 6,08</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,03</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>3,25</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>3,14</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7,15; 7,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 7,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 6,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2,72; 3,33</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 7,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 6,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 7,02</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>6,53; 6,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 6,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 6,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>2,99; 3,49</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 7,03</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 6,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 6,12</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>6,91; 7,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 6,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 6,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>2,96; 3,33</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 7,25</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 6,42</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 6,42</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,74</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>3,24</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>2,9</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,39; 7,87</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 8,04</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 6,08</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>2,25; 2,81</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 7,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,68; 6,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 8,04</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>6,92; 7,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 7,13</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 6,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>2,96; 3,51</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 7,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 6,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 7,13</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>7,22; 7,54</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 7,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 6,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>2,68; 3,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 7,42</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 6,12</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 7,44</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,84</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>3,71</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>3,38</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,59; 7,28</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 7,55</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 5,98</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>2,51; 3,23</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 7,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 5,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 7,55</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>6,23; 6,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 6,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 6,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>3,41; 4,05</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 6,79</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 6,07</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 6,93</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>6,46; 6,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 7,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 5,95</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>3,15; 3,62</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 6,89</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 5,95</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 7,0</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>2,91</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>3,43</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>3,18</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>7,73; 7,97</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 6,59</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 6,12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>2,79; 3,05</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>7,77; 8,74</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 6,12</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 6,59</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>7,17; 7,38</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 5,89</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 6,4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>3,32; 3,55</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 7,42</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 6,4</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 5,89</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>7,48; 7,64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 6,19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 6,23</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>3,09; 3,27</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 7,83</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 6,23</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 6,19</t>
         </is>
       </c>
     </row>
